--- a/com.espn/src/test/resources/ESPNTestData.xlsx
+++ b/com.espn/src/test/resources/ESPNTestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdosa\IdeaProjects\Selenium_Framework_Team2\com.espn\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8723EEF5-B827-4AA9-A4EC-C3D499CE316B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF51E879-D1DE-470F-B1F7-C232560C8180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
+    <workbookView xWindow="5310" yWindow="720" windowWidth="15375" windowHeight="7005" firstSheet="2" activeTab="4" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
   </bookViews>
   <sheets>
     <sheet name="TabsTopPagesTitles" sheetId="1" r:id="rId1"/>
     <sheet name="TeamsOptions" sheetId="4" r:id="rId2"/>
     <sheet name="LeftSideMenu" sheetId="5" r:id="rId3"/>
     <sheet name="QuickLinksTitles" sheetId="6" r:id="rId4"/>
+    <sheet name="InvalidLoginData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>null</t>
   </si>
@@ -214,16 +215,48 @@
   </si>
   <si>
     <t>ESPN Soccer Champions Pick'em - Make Picks</t>
+  </si>
+  <si>
+    <t>jack@someemail.com</t>
+  </si>
+  <si>
+    <t>bill@someemail.com</t>
+  </si>
+  <si>
+    <t>nicki@someemail.com</t>
+  </si>
+  <si>
+    <t>denise@someemail.com</t>
+  </si>
+  <si>
+    <t>dle987^%$</t>
+  </si>
+  <si>
+    <t>dewf&amp;^*3</t>
+  </si>
+  <si>
+    <t>dpo7%0H</t>
+  </si>
+  <si>
+    <t>dwo&amp;^!de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,17 +279,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1026,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4FF8E5-5AE9-4474-A982-0CEBE41770CA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1045,4 +1082,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCD2603-AE1B-48BD-BBE3-D72CE62B4BCF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3C72C1A1-4EDA-4B66-BF13-2F95B88CC622}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{55A63E01-ECC7-466C-A15B-9FD318852498}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{92D05524-F35D-4F55-A329-4864B489269A}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{5795A655-7A16-49AF-85A2-DF9A2EB3F463}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>